--- a/test.xlsx
+++ b/test.xlsx
@@ -1,124 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichenwa/Desktop/YICHEN/2022/PythonProjects/Yihui/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D9985-C899-3540-9CDE-C60585E731A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>HiPig</t>
-  </si>
-  <si>
-    <t>PIG</t>
-  </si>
-  <si>
-    <t>HiDog</t>
-  </si>
-  <si>
-    <t>giao</t>
-  </si>
-  <si>
-    <t>cdbammsdgu</t>
-  </si>
-  <si>
-    <t>AppleTree</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>AppleBee</t>
-  </si>
-  <si>
-    <t>MineCraft</t>
-  </si>
-  <si>
-    <t>peach</t>
-  </si>
-  <si>
-    <t>apple.inc</t>
-  </si>
-  <si>
-    <t>apple inc</t>
-  </si>
-  <si>
-    <t>apple llc</t>
-  </si>
-  <si>
-    <t>apple.</t>
-  </si>
-  <si>
-    <t>apple..</t>
-  </si>
-  <si>
-    <t>apple..INC</t>
-  </si>
-  <si>
-    <t>appl</t>
-  </si>
-  <si>
-    <t>appe</t>
-  </si>
-  <si>
-    <t>appl INC</t>
-  </si>
-  <si>
-    <t>Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MicroSoft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,28 +51,88 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,127 +432,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col width="19" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Apple Inc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Apple ..</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Bee</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bee</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Bee Technology</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Pig sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pigsun</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>pig_yihui</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>